--- a/docs/plant表.xlsx
+++ b/docs/plant表.xlsx
@@ -252,11 +252,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -269,7 +269,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -280,11 +279,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,8 +293,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,92 +355,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,6 +378,43 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -432,187 +431,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,9 +636,74 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,56 +723,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -717,168 +731,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,8 +1212,8 @@
   <sheetPr/>
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1250,13 +1249,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -1273,19 +1272,19 @@
         <v>8</v>
       </c>
       <c r="C3" s="2">
-        <v>900</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="4">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="5">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1296,19 +1295,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="4">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="F4" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G4" s="6">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1319,19 +1318,19 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>1200</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="4">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="F5" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="6">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1342,19 +1341,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="4">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="F6" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" s="6">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1365,19 +1364,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>1200</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F7" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G7" s="6">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1388,19 +1387,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
       </c>
       <c r="E8" s="4">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="F8" s="4">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G8" s="6">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1411,19 +1410,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>1200</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
       </c>
       <c r="E9" s="4">
-        <v>300</v>
+        <v>435</v>
       </c>
       <c r="F9" s="4">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G9" s="6">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1434,19 +1433,19 @@
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>1200</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1">
         <v>9</v>
       </c>
       <c r="E10" s="4">
-        <v>300</v>
+        <v>506</v>
       </c>
       <c r="F10" s="4">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G10" s="6">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1457,19 +1456,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="1">
-        <v>1200</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
       </c>
       <c r="E11" s="4">
-        <v>300</v>
+        <v>579</v>
       </c>
       <c r="F11" s="4">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="G11" s="6">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1480,19 +1479,19 @@
         <v>17</v>
       </c>
       <c r="C12" s="1">
-        <v>1800</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
       </c>
       <c r="E12" s="4">
-        <v>500</v>
+        <v>692</v>
       </c>
       <c r="F12" s="4">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G12" s="6">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1503,19 +1502,19 @@
         <v>18</v>
       </c>
       <c r="C13" s="1">
-        <v>1800</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
       </c>
       <c r="E13" s="4">
-        <v>500</v>
+        <v>773</v>
       </c>
       <c r="F13" s="4">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G13" s="6">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1526,19 +1525,19 @@
         <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>1800</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1">
         <v>13</v>
       </c>
       <c r="E14" s="4">
-        <v>500</v>
+        <v>856</v>
       </c>
       <c r="F14" s="4">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G14" s="6">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1549,19 +1548,19 @@
         <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>1800</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1">
         <v>14</v>
       </c>
       <c r="E15" s="4">
-        <v>500</v>
+        <v>939</v>
       </c>
       <c r="F15" s="4">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="G15" s="6">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1572,19 +1571,19 @@
         <v>21</v>
       </c>
       <c r="C16" s="1">
-        <v>1800</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1">
         <v>15</v>
       </c>
       <c r="E16" s="4">
-        <v>600</v>
+        <v>1025</v>
       </c>
       <c r="F16" s="4">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="G16" s="6">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1595,19 +1594,19 @@
         <v>22</v>
       </c>
       <c r="C17" s="1">
-        <v>1800</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1">
         <v>16</v>
       </c>
       <c r="E17" s="4">
-        <v>600</v>
+        <v>1180</v>
       </c>
       <c r="F17" s="4">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="G17" s="6">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1618,19 +1617,19 @@
         <v>23</v>
       </c>
       <c r="C18" s="1">
-        <v>1800</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1">
         <v>17</v>
       </c>
       <c r="E18" s="4">
-        <v>600</v>
+        <v>1274</v>
       </c>
       <c r="F18" s="4">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="G18" s="6">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1641,19 +1640,19 @@
         <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>1800</v>
+        <v>95</v>
       </c>
       <c r="D19" s="1">
         <v>18</v>
       </c>
       <c r="E19" s="4">
-        <v>600</v>
+        <v>1368</v>
       </c>
       <c r="F19" s="4">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="G19" s="6">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1664,19 +1663,19 @@
         <v>25</v>
       </c>
       <c r="C20" s="1">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1">
         <v>19</v>
       </c>
       <c r="E20" s="4">
-        <v>800</v>
+        <v>1463</v>
       </c>
       <c r="F20" s="4">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="G20" s="6">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1687,19 +1686,19 @@
         <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>2100</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1">
         <v>20</v>
       </c>
       <c r="E21" s="4">
-        <v>800</v>
+        <v>1560</v>
       </c>
       <c r="F21" s="4">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="G21" s="6">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1710,19 +1709,19 @@
         <v>27</v>
       </c>
       <c r="C22" s="1">
-        <v>2100</v>
+        <v>110</v>
       </c>
       <c r="D22" s="1">
         <v>21</v>
       </c>
       <c r="E22" s="4">
-        <v>800</v>
+        <v>1768</v>
       </c>
       <c r="F22" s="4">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="G22" s="6">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1733,19 +1732,19 @@
         <v>28</v>
       </c>
       <c r="C23" s="1">
-        <v>2100</v>
+        <v>115</v>
       </c>
       <c r="D23" s="1">
         <v>22</v>
       </c>
       <c r="E23" s="4">
-        <v>800</v>
+        <v>1873</v>
       </c>
       <c r="F23" s="4">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="G23" s="6">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1756,19 +1755,19 @@
         <v>29</v>
       </c>
       <c r="C24" s="1">
-        <v>2100</v>
+        <v>120</v>
       </c>
       <c r="D24" s="1">
         <v>23</v>
       </c>
       <c r="E24" s="4">
-        <v>800</v>
+        <v>1979</v>
       </c>
       <c r="F24" s="4">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="G24" s="6">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1779,19 +1778,19 @@
         <v>30</v>
       </c>
       <c r="C25" s="1">
-        <v>2100</v>
+        <v>125</v>
       </c>
       <c r="D25" s="1">
         <v>24</v>
       </c>
       <c r="E25" s="4">
-        <v>800</v>
+        <v>2086</v>
       </c>
       <c r="F25" s="4">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="G25" s="6">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1802,19 +1801,19 @@
         <v>31</v>
       </c>
       <c r="C26" s="1">
-        <v>2100</v>
+        <v>130</v>
       </c>
       <c r="D26" s="1">
         <v>25</v>
       </c>
       <c r="E26" s="4">
-        <v>900</v>
+        <v>2195</v>
       </c>
       <c r="F26" s="4">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="G26" s="6">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1825,19 +1824,19 @@
         <v>32</v>
       </c>
       <c r="C27" s="1">
-        <v>2100</v>
+        <v>135</v>
       </c>
       <c r="D27" s="1">
         <v>26</v>
       </c>
       <c r="E27" s="4">
-        <v>900</v>
+        <v>2468</v>
       </c>
       <c r="F27" s="4">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="G27" s="6">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1848,19 +1847,19 @@
         <v>33</v>
       </c>
       <c r="C28" s="1">
-        <v>2400</v>
+        <v>140</v>
       </c>
       <c r="D28" s="1">
         <v>27</v>
       </c>
       <c r="E28" s="4">
-        <v>1100</v>
+        <v>2586</v>
       </c>
       <c r="F28" s="4">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="G28" s="6">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1871,19 +1870,19 @@
         <v>34</v>
       </c>
       <c r="C29" s="1">
-        <v>2400</v>
+        <v>145</v>
       </c>
       <c r="D29" s="1">
         <v>28</v>
       </c>
       <c r="E29" s="4">
-        <v>1100</v>
+        <v>2704</v>
       </c>
       <c r="F29" s="4">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="G29" s="6">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1894,19 +1893,19 @@
         <v>35</v>
       </c>
       <c r="C30" s="1">
-        <v>2400</v>
+        <v>150</v>
       </c>
       <c r="D30" s="1">
         <v>29</v>
       </c>
       <c r="E30" s="4">
-        <v>1100</v>
+        <v>2823</v>
       </c>
       <c r="F30" s="4">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="G30" s="6">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1917,19 +1916,19 @@
         <v>36</v>
       </c>
       <c r="C31" s="1">
-        <v>2400</v>
+        <v>155</v>
       </c>
       <c r="D31" s="1">
         <v>30</v>
       </c>
       <c r="E31" s="4">
-        <v>1200</v>
+        <v>2944</v>
       </c>
       <c r="F31" s="4">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="G31" s="6">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1940,19 +1939,19 @@
         <v>37</v>
       </c>
       <c r="C32" s="1">
-        <v>2400</v>
+        <v>160</v>
       </c>
       <c r="D32" s="1">
         <v>31</v>
       </c>
       <c r="E32" s="4">
-        <v>1200</v>
+        <v>3300</v>
       </c>
       <c r="F32" s="4">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="G32" s="6">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1963,19 +1962,19 @@
         <v>38</v>
       </c>
       <c r="C33" s="1">
-        <v>2400</v>
+        <v>165</v>
       </c>
       <c r="D33" s="1">
         <v>32</v>
       </c>
       <c r="E33" s="4">
-        <v>1200</v>
+        <v>3432</v>
       </c>
       <c r="F33" s="4">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="G33" s="6">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1986,19 +1985,19 @@
         <v>39</v>
       </c>
       <c r="C34" s="1">
-        <v>2400</v>
+        <v>170</v>
       </c>
       <c r="D34" s="1">
         <v>33</v>
       </c>
       <c r="E34" s="4">
-        <v>1200</v>
+        <v>3564</v>
       </c>
       <c r="F34" s="4">
-        <v>94</v>
+        <v>277</v>
       </c>
       <c r="G34" s="6">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2009,19 +2008,19 @@
         <v>40</v>
       </c>
       <c r="C35" s="1">
-        <v>2400</v>
+        <v>175</v>
       </c>
       <c r="D35" s="1">
         <v>34</v>
       </c>
       <c r="E35" s="4">
-        <v>1200</v>
+        <v>3696</v>
       </c>
       <c r="F35" s="4">
-        <v>97</v>
+        <v>287</v>
       </c>
       <c r="G35" s="6">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2032,19 +2031,19 @@
         <v>41</v>
       </c>
       <c r="C36" s="1">
-        <v>2700</v>
+        <v>180</v>
       </c>
       <c r="D36" s="1">
         <v>35</v>
       </c>
       <c r="E36" s="4">
-        <v>1500</v>
+        <v>3830</v>
       </c>
       <c r="F36" s="4">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="G36" s="6">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2055,19 +2054,19 @@
         <v>42</v>
       </c>
       <c r="C37" s="1">
-        <v>2700</v>
+        <v>185</v>
       </c>
       <c r="D37" s="1">
         <v>36</v>
       </c>
       <c r="E37" s="4">
-        <v>1500</v>
+        <v>3964</v>
       </c>
       <c r="F37" s="4">
-        <v>119</v>
+        <v>308</v>
       </c>
       <c r="G37" s="6">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2078,19 +2077,19 @@
         <v>43</v>
       </c>
       <c r="C38" s="1">
-        <v>2700</v>
+        <v>190</v>
       </c>
       <c r="D38" s="1">
         <v>37</v>
       </c>
       <c r="E38" s="4">
-        <v>2500</v>
+        <v>6661</v>
       </c>
       <c r="F38" s="4">
-        <v>196</v>
+        <v>517</v>
       </c>
       <c r="G38" s="3">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2101,19 +2100,19 @@
         <v>44</v>
       </c>
       <c r="C39" s="1">
-        <v>2700</v>
+        <v>195</v>
       </c>
       <c r="D39" s="1">
         <v>38</v>
       </c>
       <c r="E39" s="4">
-        <v>2500</v>
+        <v>6881</v>
       </c>
       <c r="F39" s="4">
-        <v>197</v>
+        <v>534</v>
       </c>
       <c r="G39" s="3">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2124,19 +2123,19 @@
         <v>45</v>
       </c>
       <c r="C40" s="1">
-        <v>2700</v>
+        <v>200</v>
       </c>
       <c r="D40" s="1">
         <v>39</v>
       </c>
       <c r="E40" s="4">
-        <v>2600</v>
+        <v>7103</v>
       </c>
       <c r="F40" s="4">
-        <v>198</v>
+        <v>551</v>
       </c>
       <c r="G40" s="3">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2147,19 +2146,19 @@
         <v>46</v>
       </c>
       <c r="C41" s="1">
-        <v>2700</v>
+        <v>205</v>
       </c>
       <c r="D41" s="1">
         <v>40</v>
       </c>
       <c r="E41" s="4">
-        <v>2600</v>
+        <v>7325</v>
       </c>
       <c r="F41" s="4">
-        <v>200</v>
+        <v>568</v>
       </c>
       <c r="G41" s="3">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2170,19 +2169,19 @@
         <v>47</v>
       </c>
       <c r="C42" s="1">
-        <v>2700</v>
+        <v>210</v>
       </c>
       <c r="D42" s="1">
         <v>41</v>
       </c>
       <c r="E42" s="4">
-        <v>2600</v>
+        <v>7549</v>
       </c>
       <c r="F42" s="4">
-        <v>201</v>
+        <v>586</v>
       </c>
       <c r="G42" s="3">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2193,19 +2192,19 @@
         <v>48</v>
       </c>
       <c r="C43" s="1">
-        <v>2700</v>
+        <v>215</v>
       </c>
       <c r="D43" s="1">
         <v>42</v>
       </c>
       <c r="E43" s="4">
-        <v>2600</v>
+        <v>7774</v>
       </c>
       <c r="F43" s="4">
-        <v>202</v>
+        <v>603</v>
       </c>
       <c r="G43" s="3">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2216,19 +2215,19 @@
         <v>49</v>
       </c>
       <c r="C44" s="1">
-        <v>3000</v>
+        <v>220</v>
       </c>
       <c r="D44" s="1">
         <v>43</v>
       </c>
       <c r="E44" s="4">
-        <v>2900</v>
+        <v>8000</v>
       </c>
       <c r="F44" s="4">
-        <v>226</v>
+        <v>620</v>
       </c>
       <c r="G44" s="3">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2239,19 +2238,19 @@
         <v>50</v>
       </c>
       <c r="C45" s="1">
-        <v>3000</v>
+        <v>225</v>
       </c>
       <c r="D45" s="1">
         <v>44</v>
       </c>
       <c r="E45" s="4">
-        <v>2900</v>
+        <v>10969</v>
       </c>
       <c r="F45" s="4">
-        <v>227</v>
+        <v>850</v>
       </c>
       <c r="G45" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2262,19 +2261,19 @@
         <v>51</v>
       </c>
       <c r="C46" s="1">
-        <v>3000</v>
+        <v>230</v>
       </c>
       <c r="D46" s="1">
         <v>45</v>
       </c>
       <c r="E46" s="4">
-        <v>2900</v>
+        <v>11272</v>
       </c>
       <c r="F46" s="4">
-        <v>228</v>
+        <v>874</v>
       </c>
       <c r="G46" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2285,19 +2284,19 @@
         <v>52</v>
       </c>
       <c r="C47" s="1">
-        <v>3000</v>
+        <v>235</v>
       </c>
       <c r="D47" s="1">
         <v>46</v>
       </c>
       <c r="E47" s="4">
-        <v>3000</v>
+        <v>11577</v>
       </c>
       <c r="F47" s="4">
-        <v>229</v>
+        <v>897</v>
       </c>
       <c r="G47" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2308,19 +2307,19 @@
         <v>53</v>
       </c>
       <c r="C48" s="1">
-        <v>3000</v>
+        <v>240</v>
       </c>
       <c r="D48" s="1">
         <v>47</v>
       </c>
       <c r="E48" s="4">
-        <v>3000</v>
+        <v>11883</v>
       </c>
       <c r="F48" s="4">
-        <v>230</v>
+        <v>921</v>
       </c>
       <c r="G48" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2331,19 +2330,19 @@
         <v>54</v>
       </c>
       <c r="C49" s="1">
-        <v>3000</v>
+        <v>245</v>
       </c>
       <c r="D49" s="1">
         <v>48</v>
       </c>
       <c r="E49" s="4">
-        <v>3000</v>
+        <v>12190</v>
       </c>
       <c r="F49" s="4">
-        <v>231</v>
+        <v>944</v>
       </c>
       <c r="G49" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2354,19 +2353,19 @@
         <v>55</v>
       </c>
       <c r="C50" s="1">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="D50" s="1">
         <v>49</v>
       </c>
       <c r="E50" s="4">
-        <v>3000</v>
+        <v>18748</v>
       </c>
       <c r="F50" s="4">
-        <v>232</v>
+        <v>1452</v>
       </c>
       <c r="G50" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2377,19 +2376,19 @@
         <v>56</v>
       </c>
       <c r="C51" s="1">
-        <v>3000</v>
+        <v>255</v>
       </c>
       <c r="D51" s="1">
         <v>50</v>
       </c>
       <c r="E51" s="4">
-        <v>3000</v>
+        <v>19213</v>
       </c>
       <c r="F51" s="4">
-        <v>233</v>
+        <v>1488</v>
       </c>
       <c r="G51" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2400,19 +2399,19 @@
         <v>57</v>
       </c>
       <c r="C52" s="1">
-        <v>3300</v>
+        <v>260</v>
       </c>
       <c r="D52" s="1">
         <v>51</v>
       </c>
       <c r="E52" s="4">
-        <v>3300</v>
+        <v>19679</v>
       </c>
       <c r="F52" s="4">
-        <v>258</v>
+        <v>1524</v>
       </c>
       <c r="G52" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2423,16 +2422,16 @@
         <v>58</v>
       </c>
       <c r="C53" s="1">
-        <v>3300</v>
+        <v>265</v>
       </c>
       <c r="D53" s="1">
         <v>52</v>
       </c>
       <c r="E53" s="4">
-        <v>9300</v>
+        <v>44771</v>
       </c>
       <c r="F53" s="4">
-        <v>719</v>
+        <v>3467</v>
       </c>
       <c r="G53" s="3">
         <v>9</v>
@@ -2446,16 +2445,16 @@
         <v>59</v>
       </c>
       <c r="C54" s="1">
-        <v>3300</v>
+        <v>270</v>
       </c>
       <c r="D54" s="1">
         <v>53</v>
       </c>
       <c r="E54" s="4">
-        <v>9300</v>
+        <v>45814</v>
       </c>
       <c r="F54" s="4">
-        <v>723</v>
+        <v>3547</v>
       </c>
       <c r="G54" s="3">
         <v>9</v>
@@ -2469,16 +2468,16 @@
         <v>60</v>
       </c>
       <c r="C55" s="1">
-        <v>3300</v>
+        <v>275</v>
       </c>
       <c r="D55" s="1">
         <v>54</v>
       </c>
       <c r="E55" s="4">
-        <v>9400</v>
+        <v>46861</v>
       </c>
       <c r="F55" s="4">
-        <v>725</v>
+        <v>3627</v>
       </c>
       <c r="G55" s="3">
         <v>9</v>
@@ -2492,16 +2491,16 @@
         <v>61</v>
       </c>
       <c r="C56" s="1">
-        <v>3300</v>
+        <v>280</v>
       </c>
       <c r="D56" s="1">
         <v>55</v>
       </c>
       <c r="E56" s="4">
-        <v>9400</v>
+        <v>47911</v>
       </c>
       <c r="F56" s="4">
-        <v>728</v>
+        <v>3708</v>
       </c>
       <c r="G56" s="3">
         <v>9</v>
@@ -2515,19 +2514,19 @@
         <v>62</v>
       </c>
       <c r="C57" s="1">
-        <v>3300</v>
+        <v>285</v>
       </c>
       <c r="D57" s="1">
         <v>56</v>
       </c>
       <c r="E57" s="4">
-        <v>9400</v>
+        <v>55086</v>
       </c>
       <c r="F57" s="4">
-        <v>731</v>
+        <v>4263</v>
       </c>
       <c r="G57" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2538,19 +2537,19 @@
         <v>63</v>
       </c>
       <c r="C58" s="1">
-        <v>3300</v>
+        <v>290</v>
       </c>
       <c r="D58" s="1">
         <v>57</v>
       </c>
       <c r="E58" s="4">
-        <v>9500</v>
+        <v>56275</v>
       </c>
       <c r="F58" s="4">
-        <v>734</v>
+        <v>4354</v>
       </c>
       <c r="G58" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2561,19 +2560,19 @@
         <v>64</v>
       </c>
       <c r="C59" s="1">
-        <v>3300</v>
+        <v>295</v>
       </c>
       <c r="D59" s="1">
         <v>58</v>
       </c>
       <c r="E59" s="4">
-        <v>9500</v>
+        <v>57468</v>
       </c>
       <c r="F59" s="4">
-        <v>737</v>
+        <v>4446</v>
       </c>
       <c r="G59" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2584,19 +2583,19 @@
         <v>65</v>
       </c>
       <c r="C60" s="1">
-        <v>3600</v>
+        <v>300</v>
       </c>
       <c r="D60" s="1">
         <v>59</v>
       </c>
       <c r="E60" s="4">
-        <v>10400</v>
+        <v>58665</v>
       </c>
       <c r="F60" s="4">
-        <v>807</v>
+        <v>4538</v>
       </c>
       <c r="G60" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2607,19 +2606,19 @@
         <v>66</v>
       </c>
       <c r="C61" s="1">
-        <v>3600</v>
+        <v>305</v>
       </c>
       <c r="D61" s="1">
         <v>60</v>
       </c>
       <c r="E61" s="4">
-        <v>10500</v>
+        <v>68417</v>
       </c>
       <c r="F61" s="4">
-        <v>810</v>
+        <v>5292</v>
       </c>
       <c r="G61" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2630,19 +2629,19 @@
         <v>67</v>
       </c>
       <c r="C62" s="1">
-        <v>3600</v>
+        <v>310</v>
       </c>
       <c r="D62" s="1">
         <v>61</v>
       </c>
       <c r="E62" s="4">
-        <v>10500</v>
+        <v>69793</v>
       </c>
       <c r="F62" s="4">
-        <v>813</v>
+        <v>5398</v>
       </c>
       <c r="G62" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2653,19 +2652,19 @@
         <v>68</v>
       </c>
       <c r="C63" s="1">
-        <v>3600</v>
+        <v>315</v>
       </c>
       <c r="D63" s="1">
         <v>62</v>
       </c>
       <c r="E63" s="4">
-        <v>10500</v>
+        <v>71173</v>
       </c>
       <c r="F63" s="4">
-        <v>815</v>
+        <v>5504</v>
       </c>
       <c r="G63" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2676,19 +2675,19 @@
         <v>69</v>
       </c>
       <c r="C64" s="1">
-        <v>3600</v>
+        <v>320</v>
       </c>
       <c r="D64" s="1">
         <v>63</v>
       </c>
       <c r="E64" s="4">
-        <v>10600</v>
+        <v>84650</v>
       </c>
       <c r="F64" s="4">
-        <v>818</v>
+        <v>6546</v>
       </c>
       <c r="G64" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2699,19 +2698,19 @@
         <v>70</v>
       </c>
       <c r="C65" s="1">
-        <v>3600</v>
+        <v>325</v>
       </c>
       <c r="D65" s="1">
         <v>64</v>
       </c>
       <c r="E65" s="4">
-        <v>10600</v>
+        <v>86269</v>
       </c>
       <c r="F65" s="4">
-        <v>821</v>
+        <v>6670</v>
       </c>
       <c r="G65" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2722,19 +2721,19 @@
         <v>71</v>
       </c>
       <c r="C66" s="1">
-        <v>3600</v>
+        <v>330</v>
       </c>
       <c r="D66" s="1">
         <v>65</v>
       </c>
       <c r="E66" s="4">
-        <v>10700</v>
+        <v>87892</v>
       </c>
       <c r="F66" s="4">
-        <v>824</v>
+        <v>6795</v>
       </c>
       <c r="G66" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2745,19 +2744,19 @@
         <v>72</v>
       </c>
       <c r="C67" s="1">
-        <v>3600</v>
+        <v>335</v>
       </c>
       <c r="D67" s="1">
         <v>66</v>
       </c>
       <c r="E67" s="4">
-        <v>10700</v>
+        <v>89520</v>
       </c>
       <c r="F67" s="4">
-        <v>826</v>
+        <v>6920</v>
       </c>
       <c r="G67" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2768,16 +2767,16 @@
         <v>73</v>
       </c>
       <c r="C68" s="1">
-        <v>90000</v>
+        <v>600</v>
       </c>
       <c r="D68" s="1">
         <v>70</v>
       </c>
       <c r="E68" s="4">
-        <v>811900</v>
+        <v>324758</v>
       </c>
       <c r="F68" s="4">
-        <v>62739</v>
+        <v>25095</v>
       </c>
       <c r="G68" s="3">
         <v>3</v>
@@ -2791,16 +2790,16 @@
         <v>74</v>
       </c>
       <c r="C69" s="1">
-        <v>90000</v>
+        <v>600</v>
       </c>
       <c r="D69" s="1">
         <v>70</v>
       </c>
       <c r="E69" s="4">
-        <v>811900</v>
+        <v>324758</v>
       </c>
       <c r="F69" s="4">
-        <v>62739</v>
+        <v>25095</v>
       </c>
       <c r="G69" s="3">
         <v>3</v>
@@ -2814,16 +2813,16 @@
         <v>75</v>
       </c>
       <c r="C70" s="1">
-        <v>90000</v>
+        <v>600</v>
       </c>
       <c r="D70" s="1">
         <v>70</v>
       </c>
       <c r="E70" s="4">
-        <v>811900</v>
+        <v>324758</v>
       </c>
       <c r="F70" s="4">
-        <v>62739</v>
+        <v>25095</v>
       </c>
       <c r="G70" s="3">
         <v>3</v>
@@ -2837,16 +2836,16 @@
         <v>76</v>
       </c>
       <c r="C71" s="1">
-        <v>180000</v>
+        <v>1440</v>
       </c>
       <c r="D71" s="1">
         <v>80</v>
       </c>
       <c r="E71" s="4">
-        <v>5010600</v>
+        <v>2405065</v>
       </c>
       <c r="F71" s="4">
-        <v>386870</v>
+        <v>185698</v>
       </c>
       <c r="G71" s="3">
         <v>1</v>
